--- a/Experiment2_behavior data.xlsx
+++ b/Experiment2_behavior data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Neurocinematics\Exp3_KuleshoveEffect\MichaelCao_Analysis\Kuleshove 电影学英文论文（黑白画面）\PLoS One\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8122DBA9-0609-4A1C-ACE5-1F01B7DB00E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52322954-87EA-49C1-A91D-8736EE6D7662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="3240" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3516" yWindow="720" windowWidth="26292" windowHeight="15576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valence" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>SubID</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Happy</t>
-  </si>
-  <si>
-    <t>Age</t>
   </si>
   <si>
     <t>Mean</t>
@@ -380,15 +377,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -396,19 +393,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -416,19 +410,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>-3</v>
       </c>
       <c r="D2">
-        <v>-3</v>
+        <v>-0.66666666666666696</v>
       </c>
       <c r="E2">
-        <v>-0.66666666666666696</v>
-      </c>
-      <c r="F2">
         <v>0.77777777777777801</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -436,19 +427,16 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>-0.6</v>
       </c>
       <c r="D3">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="E3">
-        <v>-0.5</v>
-      </c>
-      <c r="F3">
         <v>1.2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -456,19 +444,16 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>-1.6</v>
       </c>
       <c r="D4">
-        <v>-1.6</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
         <v>-0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -476,19 +461,16 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>-2.1</v>
       </c>
       <c r="D5">
-        <v>-2.1</v>
+        <v>-0.5</v>
       </c>
       <c r="E5">
-        <v>-0.5</v>
-      </c>
-      <c r="F5">
         <v>1.9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -496,19 +478,16 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>-0.44444444444444497</v>
       </c>
       <c r="D6">
-        <v>-0.44444444444444497</v>
+        <v>-0.33333333333333298</v>
       </c>
       <c r="E6">
-        <v>-0.33333333333333298</v>
-      </c>
-      <c r="F6">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -516,19 +495,16 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
         <v>1.8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -536,19 +512,16 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>-0.7</v>
       </c>
       <c r="D8">
-        <v>-0.7</v>
+        <v>-0.3</v>
       </c>
       <c r="E8">
-        <v>-0.3</v>
-      </c>
-      <c r="F8">
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -556,19 +529,16 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>-1.9</v>
       </c>
       <c r="D9">
-        <v>-1.9</v>
+        <v>0.3</v>
       </c>
       <c r="E9">
-        <v>0.3</v>
-      </c>
-      <c r="F9">
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -576,19 +546,16 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>-2.7</v>
       </c>
       <c r="D10">
-        <v>-2.7</v>
+        <v>0.1</v>
       </c>
       <c r="E10">
-        <v>0.1</v>
-      </c>
-      <c r="F10">
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -596,19 +563,16 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="D11">
-        <v>-1.1000000000000001</v>
+        <v>-0.44444444444444497</v>
       </c>
       <c r="E11">
-        <v>-0.44444444444444497</v>
-      </c>
-      <c r="F11">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -616,19 +580,16 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>-2.3333333333333299</v>
       </c>
       <c r="D12">
-        <v>-2.3333333333333299</v>
+        <v>0.1</v>
       </c>
       <c r="E12">
-        <v>0.1</v>
-      </c>
-      <c r="F12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -636,19 +597,16 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>32</v>
+        <v>-1.2</v>
       </c>
       <c r="D13">
-        <v>-1.2</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -656,19 +614,16 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>-1.4285714285714299</v>
       </c>
       <c r="D14">
-        <v>-1.4285714285714299</v>
+        <v>-0.2</v>
       </c>
       <c r="E14">
-        <v>-0.2</v>
-      </c>
-      <c r="F14">
         <v>1.4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -676,19 +631,16 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>-1.2</v>
       </c>
       <c r="D15">
-        <v>-1.2</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
         <v>0.71428571428571397</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -696,19 +648,16 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>-0.7</v>
       </c>
       <c r="D16">
-        <v>-0.7</v>
+        <v>-0.3</v>
       </c>
       <c r="E16">
-        <v>-0.3</v>
-      </c>
-      <c r="F16">
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -716,19 +665,16 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>-2.7</v>
       </c>
       <c r="D17">
-        <v>-2.7</v>
+        <v>0.5</v>
       </c>
       <c r="E17">
-        <v>0.5</v>
-      </c>
-      <c r="F17">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -736,19 +682,16 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E18">
-        <v>-0.5</v>
-      </c>
-      <c r="F18">
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -756,19 +699,16 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>-0.7</v>
       </c>
       <c r="D19">
-        <v>-0.7</v>
+        <v>-0.1</v>
       </c>
       <c r="E19">
-        <v>-0.1</v>
-      </c>
-      <c r="F19">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -776,19 +716,16 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>-2.1111111111111098</v>
       </c>
       <c r="D20">
-        <v>-2.1111111111111098</v>
+        <v>-0.1</v>
       </c>
       <c r="E20">
-        <v>-0.1</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -796,19 +733,16 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>-0.71428571428571397</v>
       </c>
       <c r="D21">
-        <v>-0.71428571428571397</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
         <v>1.125</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -816,19 +750,16 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="D22">
-        <v>-1.1000000000000001</v>
+        <v>-0.22222222222222199</v>
       </c>
       <c r="E22">
-        <v>-0.22222222222222199</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -836,19 +767,16 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>-3.5555555555555598</v>
       </c>
       <c r="D23">
-        <v>-3.5555555555555598</v>
+        <v>-0.3</v>
       </c>
       <c r="E23">
-        <v>-0.3</v>
-      </c>
-      <c r="F23">
         <v>1.4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -856,19 +784,16 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="D24">
         <v>-1.1000000000000001</v>
       </c>
       <c r="E24">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -876,19 +801,16 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>21</v>
+        <v>-0.5</v>
       </c>
       <c r="D25">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="E25">
-        <v>-0.3</v>
-      </c>
-      <c r="F25">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -896,19 +818,16 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>-1.6</v>
       </c>
       <c r="D26">
-        <v>-1.6</v>
+        <v>-0.1</v>
       </c>
       <c r="E26">
-        <v>-0.1</v>
-      </c>
-      <c r="F26">
         <v>0.4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -916,19 +835,16 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>-0.6</v>
       </c>
       <c r="D27">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="E27">
-        <v>-0.3</v>
-      </c>
-      <c r="F27">
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -936,19 +852,16 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>18</v>
+        <v>-3.6666666666666701</v>
       </c>
       <c r="D28">
-        <v>-3.6666666666666701</v>
+        <v>-0.2</v>
       </c>
       <c r="E28">
-        <v>-0.2</v>
-      </c>
-      <c r="F28">
         <v>1.4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -956,19 +869,16 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>-1.2</v>
       </c>
       <c r="D29">
-        <v>-1.2</v>
+        <v>-0.5</v>
       </c>
       <c r="E29">
-        <v>-0.5</v>
-      </c>
-      <c r="F29">
         <v>2.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -976,19 +886,16 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>25</v>
+        <v>-2.5</v>
       </c>
       <c r="D30">
-        <v>-2.5</v>
+        <v>-0.125</v>
       </c>
       <c r="E30">
-        <v>-0.125</v>
-      </c>
-      <c r="F30">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -996,19 +903,16 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>28</v>
+        <v>-1.5</v>
       </c>
       <c r="D31">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
         <v>0.11111111111111099</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1016,75 +920,63 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>19</v>
+        <v>-0.3</v>
       </c>
       <c r="D32">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
         <v>0.6</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" s="1">
-        <f>AVERAGE(C2:C32)</f>
-        <v>21.93548387096774</v>
+        <f t="shared" ref="C34:E34" si="0">AVERAGE(C2:C32)</f>
+        <v>-1.4791602662570407</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" ref="D34:F34" si="0">AVERAGE(D2:D32)</f>
-        <v>-1.4791602662570407</v>
+        <f t="shared" si="0"/>
+        <v>-0.16424731182795699</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="0"/>
-        <v>-0.16424731182795699</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" si="0"/>
         <v>0.89015616999487979</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" s="1">
-        <f>_xlfn.STDEV.S(C2:C32)</f>
-        <v>2.9881486338642058</v>
+        <f t="shared" ref="C35:E35" si="1">_xlfn.STDEV.S(C2:C32)</f>
+        <v>0.95935460426731511</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" ref="D35:F35" si="1">_xlfn.STDEV.S(D2:D32)</f>
-        <v>0.95935460426731511</v>
+        <f t="shared" si="1"/>
+        <v>0.37021622389618269</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="1"/>
-        <v>0.37021622389618269</v>
-      </c>
-      <c r="F35" s="1">
-        <f t="shared" si="1"/>
         <v>0.89542986437270888</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C36" s="1">
+        <f>C35/SQRT(A32)</f>
+        <v>0.17230517345020827</v>
+      </c>
       <c r="D36" s="1">
         <f>D35/SQRT(A32)</f>
-        <v>0.17230517345020827</v>
+        <v>6.6492796708086013E-2</v>
       </c>
       <c r="E36" s="1">
         <f>E35/SQRT(A32)</f>
-        <v>6.6492796708086013E-2</v>
-      </c>
-      <c r="F36" s="1">
-        <f>F35/SQRT(A32)</f>
         <v>0.16082395123445448</v>
       </c>
     </row>
@@ -1095,15 +987,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A6E07E-8BB7-481C-B126-E5B691C6944F}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1111,19 +1003,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1131,19 +1020,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>5.2222222222222197</v>
       </c>
       <c r="D2">
-        <v>5.2222222222222197</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F2">
         <v>4.7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1151,19 +1037,16 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F3">
         <v>5.2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1171,19 +1054,16 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>3.8</v>
       </c>
       <c r="D4">
-        <v>3.8</v>
+        <v>5.6</v>
       </c>
       <c r="E4">
-        <v>5.6</v>
-      </c>
-      <c r="F4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1191,19 +1071,16 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>5.3</v>
       </c>
       <c r="D5">
-        <v>5.3</v>
+        <v>2.1</v>
       </c>
       <c r="E5">
-        <v>2.1</v>
-      </c>
-      <c r="F5">
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1211,19 +1088,16 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>6.6</v>
       </c>
       <c r="D6">
-        <v>6.6</v>
+        <v>4.875</v>
       </c>
       <c r="E6">
-        <v>4.875</v>
-      </c>
-      <c r="F6">
         <v>5.4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1231,19 +1105,16 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>6.7777777777777803</v>
       </c>
       <c r="D7">
-        <v>6.7777777777777803</v>
+        <v>6.4</v>
       </c>
       <c r="E7">
-        <v>6.4</v>
-      </c>
-      <c r="F7">
         <v>6.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1251,19 +1122,16 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>3.8</v>
       </c>
       <c r="D8">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="E8">
-        <v>4.3</v>
-      </c>
-      <c r="F8">
         <v>3.9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1271,19 +1139,16 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>6.3</v>
       </c>
       <c r="D9">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="E9">
-        <v>5.7</v>
-      </c>
-      <c r="F9">
         <v>6.9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1291,19 +1156,16 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>6.6</v>
       </c>
       <c r="D10">
-        <v>6.6</v>
+        <v>3.2</v>
       </c>
       <c r="E10">
-        <v>3.2</v>
-      </c>
-      <c r="F10">
         <v>5.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1311,19 +1173,16 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>5.6666666666666696</v>
       </c>
       <c r="D11">
-        <v>5.6666666666666696</v>
+        <v>5.6</v>
       </c>
       <c r="E11">
-        <v>5.6</v>
-      </c>
-      <c r="F11">
         <v>5.8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1331,19 +1190,16 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>5.5</v>
       </c>
       <c r="D12">
-        <v>5.5</v>
+        <v>4.7777777777777803</v>
       </c>
       <c r="E12">
-        <v>4.7777777777777803</v>
-      </c>
-      <c r="F12">
         <v>6.6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1351,19 +1207,16 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>32</v>
+        <v>3.2</v>
       </c>
       <c r="D13">
-        <v>3.2</v>
+        <v>1.2222222222222201</v>
       </c>
       <c r="E13">
-        <v>1.2222222222222201</v>
-      </c>
-      <c r="F13">
         <v>1.8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1371,19 +1224,16 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>5.2222222222222197</v>
       </c>
       <c r="D14">
-        <v>5.2222222222222197</v>
+        <v>3.9</v>
       </c>
       <c r="E14">
-        <v>3.9</v>
-      </c>
-      <c r="F14">
         <v>6.6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1391,19 +1241,16 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>5.8</v>
       </c>
       <c r="D15">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="E15">
-        <v>5.3</v>
-      </c>
-      <c r="F15">
         <v>5.5555555555555598</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1411,19 +1258,16 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>5.8</v>
       </c>
       <c r="D16">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="F16">
         <v>5.4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1431,19 +1275,16 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D17">
-        <v>4.9000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="E17">
-        <v>4.7</v>
-      </c>
-      <c r="F17">
         <v>6.2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1451,19 +1292,16 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>3.71428571428571</v>
       </c>
       <c r="D18">
-        <v>3.71428571428571</v>
+        <v>3.7</v>
       </c>
       <c r="E18">
-        <v>3.7</v>
-      </c>
-      <c r="F18">
         <v>4.44444444444445</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1471,19 +1309,16 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D19">
-        <v>4.9000000000000004</v>
+        <v>1.9</v>
       </c>
       <c r="E19">
-        <v>1.9</v>
-      </c>
-      <c r="F19">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1491,19 +1326,16 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>7.1</v>
       </c>
       <c r="D20">
-        <v>7.1</v>
+        <v>3.4</v>
       </c>
       <c r="E20">
-        <v>3.4</v>
-      </c>
-      <c r="F20">
         <v>5.6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1511,19 +1343,16 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>6.5555555555555598</v>
       </c>
       <c r="D21">
+        <v>6.5</v>
+      </c>
+      <c r="E21">
         <v>6.5555555555555598</v>
       </c>
-      <c r="E21">
-        <v>6.5</v>
-      </c>
-      <c r="F21">
-        <v>6.5555555555555598</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1531,19 +1360,16 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>5.25</v>
       </c>
       <c r="D22">
-        <v>5.25</v>
+        <v>5.3333333333333304</v>
       </c>
       <c r="E22">
-        <v>5.3333333333333304</v>
-      </c>
-      <c r="F22">
         <v>5.3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1551,19 +1377,16 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D23">
-        <v>8.3000000000000007</v>
+        <v>5.6</v>
       </c>
       <c r="E23">
-        <v>5.6</v>
-      </c>
-      <c r="F23">
         <v>6.1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1571,19 +1394,16 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>3.1</v>
       </c>
       <c r="D24">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="E24">
-        <v>4.2</v>
-      </c>
-      <c r="F24">
         <v>4.3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1591,19 +1411,16 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E25">
-        <v>4.5</v>
-      </c>
-      <c r="F25">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1611,19 +1428,16 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>5.6</v>
       </c>
       <c r="D26">
-        <v>5.6</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>4</v>
-      </c>
-      <c r="F26">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1631,19 +1445,16 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>2.1</v>
       </c>
       <c r="D27">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="E27">
-        <v>1.7</v>
-      </c>
-      <c r="F27">
         <v>1.7777777777777799</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1651,19 +1462,16 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>18</v>
+        <v>7.1111111111111098</v>
       </c>
       <c r="D28">
-        <v>7.1111111111111098</v>
+        <v>2.4</v>
       </c>
       <c r="E28">
-        <v>2.4</v>
-      </c>
-      <c r="F28">
         <v>3.4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1671,19 +1479,16 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>5.9</v>
       </c>
       <c r="D29">
-        <v>5.9</v>
+        <v>4.7</v>
       </c>
       <c r="E29">
-        <v>4.7</v>
-      </c>
-      <c r="F29">
         <v>7.2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1691,19 +1496,16 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>25</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D30">
-        <v>4.4000000000000004</v>
+        <v>2.1</v>
       </c>
       <c r="E30">
-        <v>2.1</v>
-      </c>
-      <c r="F30">
         <v>2.4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1711,19 +1513,16 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>28</v>
+        <v>4.5</v>
       </c>
       <c r="D31">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="E31">
-        <v>3.4</v>
-      </c>
-      <c r="F31">
         <v>3.7777777777777799</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1731,75 +1530,63 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>19</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D32">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E32">
-        <v>4.5</v>
-      </c>
-      <c r="F32">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" s="1">
-        <f>AVERAGE(C2:C32)</f>
-        <v>21.93548387096774</v>
+        <f t="shared" ref="C34:E34" si="0">AVERAGE(C2:C32)</f>
+        <v>5.2716077828981049</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" ref="D34:F34" si="0">AVERAGE(D2:D32)</f>
-        <v>5.2716077828981049</v>
+        <f t="shared" si="0"/>
+        <v>4.1970430107526884</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="0"/>
-        <v>4.1970430107526884</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" si="0"/>
         <v>4.9422939068100353</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" s="1">
-        <f>_xlfn.STDEV.S(C2:C32)</f>
-        <v>2.9881486338642058</v>
+        <f t="shared" ref="C35:E35" si="1">_xlfn.STDEV.S(C2:C32)</f>
+        <v>1.342124108995572</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" ref="D35:F35" si="1">_xlfn.STDEV.S(D2:D32)</f>
-        <v>1.342124108995572</v>
+        <f t="shared" si="1"/>
+        <v>1.4006044652389369</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="1"/>
-        <v>1.4006044652389369</v>
-      </c>
-      <c r="F35" s="1">
-        <f t="shared" si="1"/>
         <v>1.4059439350840091</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C36" s="1">
+        <f>C35/SQRT(A32)</f>
+        <v>0.2410526059535659</v>
+      </c>
       <c r="D36" s="1">
         <f>D35/SQRT(A32)</f>
-        <v>0.2410526059535659</v>
+        <v>0.2515559879992888</v>
       </c>
       <c r="E36" s="1">
         <f>E35/SQRT(A32)</f>
-        <v>0.2515559879992888</v>
-      </c>
-      <c r="F36" s="1">
-        <f>F35/SQRT(A32)</f>
         <v>0.25251498509347586</v>
       </c>
     </row>
